--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P18_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P18_trail5 Features.xlsx
@@ -3268,7 +3268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3279,29 +3279,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3322,115 +3320,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3447,72 +3435,66 @@
         <v>5.802116013949199e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.6990222920122211</v>
+        <v>2.540551526206422e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.4532406592496048</v>
+        <v>5.528066924877638e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.540551526206422e-06</v>
+        <v>0.05081255419928572</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.528066924877638e-06</v>
+        <v>0.2403470602426143</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.05081255419928572</v>
+        <v>0.06028726445725293</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2403470602426143</v>
+        <v>1.407030911117557</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06028726445725293</v>
+        <v>1.536297385615482</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.32956315270813</v>
+        <v>4.156715236317504</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.536297385615482</v>
+        <v>6.945995411293006e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.156715236317504</v>
+        <v>7839776.109225278</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.945995411293006e-14</v>
+        <v>1.171976069326228e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>7839776.109225278</v>
+        <v>4.269153912380262</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.171976069326228e-05</v>
+        <v>0.0001240098363817528</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>4.269153912380262</v>
+        <v>7.427329177355366</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001240098363817528</v>
+        <v>1.375681033385114</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.427329177355366</v>
+        <v>0.006841029746041193</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.375681033385114</v>
+        <v>3.138548561687085</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.006841029746041193</v>
+        <v>0.9127915122343152</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.138548561687085</v>
+        <v>1.907109980447883</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9127915122343152</v>
+        <v>4</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.907109980447883</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1852201924910693</v>
       </c>
     </row>
@@ -3527,72 +3509,66 @@
         <v>5.683168587911022e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.7297730398824955</v>
+        <v>2.072323962730708e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.5830887572185088</v>
+        <v>5.555396802121386e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.072323962730708e-06</v>
+        <v>0.04477029314524398</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.555396802121386e-06</v>
+        <v>0.2284128805425322</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.04477029314524398</v>
+        <v>0.05413299336574701</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2284128805425322</v>
+        <v>1.337928671886914</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.05413299336574701</v>
+        <v>1.430384306027769</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.268872670236767</v>
+        <v>4.568528729296141</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.430384306027769</v>
+        <v>8.795632467655033e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.568528729296141</v>
+        <v>6782273.028821195</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>8.795632467655033e-14</v>
+        <v>1.25346015086901e-05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>6782273.028821195</v>
+        <v>4.04592298336107</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.25346015086901e-05</v>
+        <v>0.0001237191167487698</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>4.04592298336107</v>
+        <v>7.399671212190053</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001237191167487698</v>
+        <v>1.557515784582215</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.399671212190053</v>
+        <v>0.006774256821942669</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.557515784582215</v>
+        <v>3.228869672143543</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.006774256821942669</v>
+        <v>0.9026680904920013</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.228869672143543</v>
+        <v>1.920375209114473</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9026680904920013</v>
+        <v>5</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.920375209114473</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1816674709840838</v>
       </c>
     </row>
@@ -3607,72 +3583,66 @@
         <v>5.698321701738539e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.6672132406720787</v>
+        <v>1.882878708275573e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.7100668868193134</v>
+        <v>5.578951746779121e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.882878708275573e-06</v>
+        <v>0.0379779700312217</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.578951746779121e-06</v>
+        <v>0.2147306656668858</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0379779700312217</v>
+        <v>0.04752388116426717</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2147306656668858</v>
+        <v>1.32250446895593</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04752388116426717</v>
+        <v>1.328072991850292</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.253267744838328</v>
+        <v>4.195720225048087</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.328072991850292</v>
+        <v>1.644021909674484e-13</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.195720225048087</v>
+        <v>3739652.127240749</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.644021909674484e-13</v>
+        <v>2.307739880724417e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>3739652.127240749</v>
+        <v>2.299164317263873</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.307739880724417e-05</v>
+        <v>0.0001332606522608101</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>2.299164317263873</v>
+        <v>9.349128470280611</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001332606522608101</v>
+        <v>1.723170807988253</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.349128470280611</v>
+        <v>0.01164780764391779</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.723170807988253</v>
+        <v>3.26406921374173</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01164780764391779</v>
+        <v>0.9007207037325961</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.26406921374173</v>
+        <v>1.940357788019681</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9007207037325961</v>
+        <v>5</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.940357788019681</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1808431680752096</v>
       </c>
     </row>
@@ -3687,72 +3657,66 @@
         <v>5.782084541636983e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.593563383779431</v>
+        <v>1.882878708275573e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.8531704523645915</v>
+        <v>5.598223296507777e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.882878708275573e-06</v>
+        <v>0.02884968270671672</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.598223296507777e-06</v>
+        <v>0.1983736604798284</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.02884968270671672</v>
+        <v>0.04015967864478318</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1983736604798284</v>
+        <v>1.301627466176306</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04015967864478318</v>
+        <v>1.320706689653296</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.237526013332545</v>
+        <v>3.60018289378044</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.320706689653296</v>
+        <v>2.232911526256211e-13</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.60018289378044</v>
+        <v>2852553.266096799</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.232911526256211e-13</v>
+        <v>2.965633189604398e-05</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>2852553.266096799</v>
+        <v>1.816933536733461</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.965633189604398e-05</v>
+        <v>0.0001419260012728515</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1.816933536733461</v>
+        <v>12.01841960708696</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001419260012728515</v>
+        <v>1.399214586631204</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>12.01841960708696</v>
+        <v>0.02050013364451043</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.399214586631204</v>
+        <v>3.0788999846345</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02050013364451043</v>
+        <v>0.8973350736152218</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.0788999846345</v>
+        <v>1.942780431970248</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.8973350736152218</v>
+        <v>5</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.942780431970248</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1809861078245762</v>
       </c>
     </row>
@@ -3767,72 +3731,66 @@
         <v>5.879563150050572e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.5435471040867739</v>
+        <v>1.882878708275573e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.9763528463899585</v>
+        <v>5.611808917337053e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.882878708275573e-06</v>
+        <v>0.01772222057261038</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5.611808917337053e-06</v>
+        <v>0.179179763035712</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01772222057261038</v>
+        <v>0.03239433923183056</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.179179763035712</v>
+        <v>1.305084742828385</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03239433923183056</v>
+        <v>1.45269876828983</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.238018748087638</v>
+        <v>3.579413072205581</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.45269876828983</v>
+        <v>2.258899992312807e-13</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.579413072205581</v>
+        <v>2876022.731764464</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.258899992312807e-13</v>
+        <v>2.976805922859633e-05</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>2876022.731764464</v>
+        <v>1.868450654218095</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.976805922859633e-05</v>
+        <v>0.0001265733830367565</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1.868450654218095</v>
+        <v>10.42529397271238</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001265733830367565</v>
+        <v>1.248736448285147</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.42529397271238</v>
+        <v>0.0137568501979047</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.248736448285147</v>
+        <v>2.979723591846427</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0137568501979047</v>
+        <v>0.9044185663088052</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.979723591846427</v>
+        <v>1.939807648812144</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9044185663088052</v>
+        <v>4</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.939807648812144</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1754926530757579</v>
       </c>
     </row>
@@ -3847,72 +3805,66 @@
         <v>5.950893932076927e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.5243478299398294</v>
+        <v>1.882878708275573e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.044920302659603</v>
+        <v>5.61913333593077e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.882878708275573e-06</v>
+        <v>0.00747690261914206</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>5.61913333593077e-06</v>
+        <v>0.1614275011261126</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.00747690261914206</v>
+        <v>0.02609614928596264</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1614275011261126</v>
+        <v>1.318540977093061</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02609614928596264</v>
+        <v>1.414221469370635</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.245943660800811</v>
+        <v>3.640531993433881</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.414221469370635</v>
+        <v>2.183689769860343e-13</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.640531993433881</v>
+        <v>3047486.259233402</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.183689769860343e-13</v>
+        <v>2.911422969713267e-05</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>3047486.259233402</v>
+        <v>2.028030357965084</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.911422969713267e-05</v>
+        <v>0.0001366767746539156</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>2.028030357965084</v>
+        <v>9.016237341599947</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001366767746539156</v>
+        <v>1.140255985899466</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.016237341599947</v>
+        <v>0.01111080159659034</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.140255985899466</v>
+        <v>2.81969127979938</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01111080159659034</v>
+        <v>0.9088029882988493</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.81969127979938</v>
+        <v>1.931338696228669</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9088029882988493</v>
+        <v>7</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.931338696228669</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1717698401352559</v>
       </c>
     </row>
@@ -4289,7 +4241,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.711645324901492</v>
+        <v>1.750767356019981</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.92299128589615</v>
@@ -4378,7 +4330,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.718902415559137</v>
+        <v>1.757323202529402</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.816375026718062</v>
@@ -4467,7 +4419,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.731539806192258</v>
+        <v>1.768855840720768</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.898336297855495</v>
@@ -4556,7 +4508,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.748730574430782</v>
+        <v>1.789593716042593</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.991415165762307</v>
@@ -4645,7 +4597,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.804647526402956</v>
+        <v>1.840834371434455</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.859029001130602</v>
@@ -4734,7 +4686,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.805177309040743</v>
+        <v>1.842538523222697</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.876515107097743</v>
@@ -4823,7 +4775,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.804272225035027</v>
+        <v>1.839807398733341</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.28267731104189</v>
@@ -4912,7 +4864,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.792585594008406</v>
+        <v>1.831459210447592</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.074733467897149</v>
@@ -5001,7 +4953,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.802538381776261</v>
+        <v>1.838575950273157</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.923463136699353</v>
@@ -5090,7 +5042,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.819086237125989</v>
+        <v>1.856930864561726</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.204432514301335</v>
@@ -5179,7 +5131,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.834686464505756</v>
+        <v>1.873003307571731</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.370785022118043</v>
@@ -5268,7 +5220,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.836231023306298</v>
+        <v>1.872611971129265</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.311416559942328</v>
@@ -5357,7 +5309,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.840983821223801</v>
+        <v>1.876161608869796</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.717948252954485</v>
@@ -5446,7 +5398,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.858257354997707</v>
+        <v>1.888425753798537</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.617096135572643</v>
@@ -5535,7 +5487,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.870588967068829</v>
+        <v>1.898753892060999</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.259486270201899</v>
@@ -5624,7 +5576,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.855429982140958</v>
+        <v>1.890236481348164</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.171272714317567</v>
@@ -5713,7 +5665,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.856657144506775</v>
+        <v>1.891601895479182</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.270604151028409</v>
@@ -5802,7 +5754,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.843723260520823</v>
+        <v>1.880957148529861</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.47041232041609</v>
@@ -5891,7 +5843,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.863237206734139</v>
+        <v>1.896714184884334</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.559439487368743</v>
@@ -5980,7 +5932,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.848860199353101</v>
+        <v>1.884425008676934</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.291465255028739</v>
@@ -6069,7 +6021,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.832948061938739</v>
+        <v>1.874890114004685</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.417517740514338</v>
@@ -6158,7 +6110,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.844661821379634</v>
+        <v>1.885603257391107</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.116502928090618</v>
@@ -6247,7 +6199,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.850780490034945</v>
+        <v>1.892823731731805</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.251723968781246</v>
@@ -6336,7 +6288,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.86884962705167</v>
+        <v>1.907670082593788</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.194470022636236</v>
@@ -6425,7 +6377,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.848471769538902</v>
+        <v>1.887813710524662</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.154314728769791</v>
@@ -6514,7 +6466,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.849495147879717</v>
+        <v>1.886608292544442</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.173621409885852</v>
@@ -6603,7 +6555,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.847893289982367</v>
+        <v>1.887596627008347</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.15792049890491</v>
@@ -6692,7 +6644,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.866231117259273</v>
+        <v>1.905573986702186</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.175363468695638</v>
@@ -6781,7 +6733,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.875367644383421</v>
+        <v>1.912107335085144</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.159713601548448</v>
@@ -6870,7 +6822,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.875657110274058</v>
+        <v>1.910901191729875</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.203319619272324</v>
@@ -6959,7 +6911,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.897631826701087</v>
+        <v>1.927246759106664</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.221616541896255</v>
@@ -7048,7 +7000,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.894545269643946</v>
+        <v>1.927819644183361</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.167094838806123</v>
@@ -7137,7 +7089,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.899224801135651</v>
+        <v>1.928660122521444</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.183018429350244</v>
@@ -7226,7 +7178,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.880620249493241</v>
+        <v>1.915442111930064</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.16461540102177</v>
@@ -7315,7 +7267,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.891114224190977</v>
+        <v>1.921848698703114</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.18411944993254</v>
@@ -7404,7 +7356,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.914796801741711</v>
+        <v>1.940208923959603</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.160005463461269</v>
@@ -7493,7 +7445,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.907640054610723</v>
+        <v>1.932813282910317</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.179726819354284</v>
@@ -7582,7 +7534,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.911117048536033</v>
+        <v>1.935587457256906</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.16043626142957</v>
@@ -7671,7 +7623,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.907478138764651</v>
+        <v>1.934404646551028</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.191922989192993</v>
@@ -7760,7 +7712,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.914504537689131</v>
+        <v>1.941764097294655</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.489582620693543</v>
@@ -7849,7 +7801,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.922824232448548</v>
+        <v>1.950545277727122</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.365264815233115</v>
@@ -7938,7 +7890,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.923210795748281</v>
+        <v>1.949000289257096</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.571892499954816</v>
@@ -8027,7 +7979,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.923771993572885</v>
+        <v>1.945963008701612</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.502440864791887</v>
@@ -8116,7 +8068,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.916246353606125</v>
+        <v>1.941166585356958</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.612917741438501</v>
@@ -8205,7 +8157,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.91558150858104</v>
+        <v>1.933063710398892</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.434353923732377</v>
@@ -8294,7 +8246,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.893297714948654</v>
+        <v>1.90927797267562</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.40575700005044</v>
@@ -8383,7 +8335,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.88916023017761</v>
+        <v>1.896259353387909</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.520843057744944</v>
@@ -8472,7 +8424,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.89365634104572</v>
+        <v>1.899312151870204</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.470464208618934</v>
@@ -8561,7 +8513,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.888776468750082</v>
+        <v>1.893694318200399</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.451987077396888</v>
@@ -8650,7 +8602,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.888781127747733</v>
+        <v>1.897675375756479</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.452301558172607</v>
@@ -8739,7 +8691,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.885570139673008</v>
+        <v>1.890954291907558</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.472949417236144</v>
@@ -9025,7 +8977,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.486276755639741</v>
+        <v>1.512359700632307</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.744222293065391</v>
@@ -9114,7 +9066,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.495545133666327</v>
+        <v>1.523345041366571</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.738303939152921</v>
@@ -9203,7 +9155,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.513941698728294</v>
+        <v>1.54545376225509</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.755443125259942</v>
@@ -9292,7 +9244,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.54571795928039</v>
+        <v>1.574280073810766</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.717656656777128</v>
@@ -9381,7 +9333,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.758988352707501</v>
+        <v>1.779712307476021</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.85817518111454</v>
@@ -9470,7 +9422,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.781126729988749</v>
+        <v>1.790004254567475</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.489864743529558</v>
@@ -9559,7 +9511,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.757421132500489</v>
+        <v>1.768853221831045</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.442727197647335</v>
@@ -9648,7 +9600,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.732349747971254</v>
+        <v>1.748234379004631</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.470901536491227</v>
@@ -9737,7 +9689,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.725341943381909</v>
+        <v>1.739213301810979</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.380720912594966</v>
@@ -9826,7 +9778,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.707276194573895</v>
+        <v>1.718877551577903</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.320803076006451</v>
@@ -9915,7 +9867,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.689389192726306</v>
+        <v>1.702615361341915</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.487239884565499</v>
@@ -10004,7 +9956,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.66258389634301</v>
+        <v>1.679396416856561</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.3369754223873</v>
@@ -10093,7 +10045,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.633858373496965</v>
+        <v>1.653588530830419</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.209697468213613</v>
@@ -10182,7 +10134,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.605838276623901</v>
+        <v>1.627499086060001</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.793300325379045</v>
@@ -10271,7 +10223,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.592809328894524</v>
+        <v>1.617006926004455</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.757881173069553</v>
@@ -10360,7 +10312,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.579282210436363</v>
+        <v>1.605056622029083</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.67339242620795</v>
@@ -10449,7 +10401,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.568201628829933</v>
+        <v>1.597622185185227</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.680430995662414</v>
@@ -10538,7 +10490,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.557070761547784</v>
+        <v>1.583642271699706</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.711977942495204</v>
@@ -10627,7 +10579,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.557307502979719</v>
+        <v>1.585736084139191</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.709743301614205</v>
@@ -10716,7 +10668,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.550279446908631</v>
+        <v>1.575538022671237</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.618244679254693</v>
@@ -10805,7 +10757,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.548970417703501</v>
+        <v>1.57521357788073</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.571787799560067</v>
@@ -10894,7 +10846,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.559294476603118</v>
+        <v>1.582787080713675</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.658634049868416</v>
@@ -10983,7 +10935,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.567443666451538</v>
+        <v>1.592206859334009</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.628601931168034</v>
@@ -11072,7 +11024,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.570605666218944</v>
+        <v>1.597907357746052</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.640975638535054</v>
@@ -11161,7 +11113,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.574368509132284</v>
+        <v>1.597927014688558</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.428121551526173</v>
@@ -11250,7 +11202,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.582019998956709</v>
+        <v>1.611148395400042</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.365803858972771</v>
@@ -11339,7 +11291,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.589277591128049</v>
+        <v>1.613261791326359</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.628759939515242</v>
@@ -11428,7 +11380,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.607533059191421</v>
+        <v>1.62924160354516</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.467441903718662</v>
@@ -11517,7 +11469,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.633792827049942</v>
+        <v>1.657061868806591</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.495082151065883</v>
@@ -11606,7 +11558,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.640122253343585</v>
+        <v>1.654475928088744</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.440001871487838</v>
@@ -11695,7 +11647,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.632997168410362</v>
+        <v>1.642675476916662</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.463644388271095</v>
@@ -11784,7 +11736,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.624259871018421</v>
+        <v>1.635072140860359</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.523629684740545</v>
@@ -11873,7 +11825,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.626033517296751</v>
+        <v>1.637468833737313</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.43761588603988</v>
@@ -11962,7 +11914,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.622702960645385</v>
+        <v>1.63589756004043</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.38384913110398</v>
@@ -12051,7 +12003,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.618125082521221</v>
+        <v>1.635581285175402</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.546115521302076</v>
@@ -12140,7 +12092,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.626910302412096</v>
+        <v>1.644541189603503</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.604876827699846</v>
@@ -12229,7 +12181,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.600965603915539</v>
+        <v>1.625517304394685</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.624847097292202</v>
@@ -12318,7 +12270,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.605106903590224</v>
+        <v>1.632228075198572</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.581593960677588</v>
@@ -12407,7 +12359,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.60086336910479</v>
+        <v>1.628479923147705</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.550506465481671</v>
@@ -12496,7 +12448,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.618645403312565</v>
+        <v>1.646777938636742</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.664028957911121</v>
@@ -12585,7 +12537,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.611755176675462</v>
+        <v>1.639159700622745</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.725728618600111</v>
@@ -12674,7 +12626,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.615053671577169</v>
+        <v>1.643042247484636</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.876171622590247</v>
@@ -12763,7 +12715,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.608956037304085</v>
+        <v>1.637391350222954</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.781193411136129</v>
@@ -12852,7 +12804,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.58941408772557</v>
+        <v>1.623503257935706</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.747163261439398</v>
@@ -12941,7 +12893,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.588954983683477</v>
+        <v>1.624885759522453</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.643872390345705</v>
@@ -13030,7 +12982,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.593992648117701</v>
+        <v>1.633951108973173</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.976908503919228</v>
@@ -13119,7 +13071,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.60356137465419</v>
+        <v>1.63566402705444</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.876284398666865</v>
@@ -13208,7 +13160,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.60412473719767</v>
+        <v>1.636691772401891</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.769913446833653</v>
@@ -13297,7 +13249,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.598761744735175</v>
+        <v>1.629137280126968</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.662180990262944</v>
@@ -13386,7 +13338,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.605183892511</v>
+        <v>1.633967638918485</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.912115634277196</v>
@@ -13475,7 +13427,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.595915500861693</v>
+        <v>1.620355391029173</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.863186491161498</v>
@@ -13761,7 +13713,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.814150419195634</v>
+        <v>1.806810015089369</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.237221972278897</v>
@@ -13850,7 +13802,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.821321336432455</v>
+        <v>1.815645481584688</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.999922802482624</v>
@@ -13939,7 +13891,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.833317976303539</v>
+        <v>1.828074388794328</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.204664777502016</v>
@@ -14028,7 +13980,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.855098191039672</v>
+        <v>1.850440545378565</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.411895528079471</v>
@@ -14117,7 +14069,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.869306456767966</v>
+        <v>1.869376774405413</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.269100936125227</v>
@@ -14206,7 +14158,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.866015257666675</v>
+        <v>1.868344151974658</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.877705029536895</v>
@@ -14295,7 +14247,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.864529443447702</v>
+        <v>1.864434454631003</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.522593307031674</v>
@@ -14384,7 +14336,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.864683809628559</v>
+        <v>1.86619113678909</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.972295356865913</v>
@@ -14473,7 +14425,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.876428016948757</v>
+        <v>1.876861691116734</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.683369363811169</v>
@@ -14562,7 +14514,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.880911750450334</v>
+        <v>1.88082758363391</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.974898733459875</v>
@@ -14651,7 +14603,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.881310528622799</v>
+        <v>1.880557011783462</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.679130704074864</v>
@@ -14740,7 +14692,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.886613623338592</v>
+        <v>1.881875719324036</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.356710568399819</v>
@@ -14829,7 +14781,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.882545444369803</v>
+        <v>1.879821453003093</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.403184168590301</v>
@@ -14918,7 +14870,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.875641231821106</v>
+        <v>1.876429553816894</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.801692166329214</v>
@@ -15007,7 +14959,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.877208587073709</v>
+        <v>1.876551446420145</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.782947361074315</v>
@@ -15096,7 +15048,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.87405150993994</v>
+        <v>1.874045663886544</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.800372941492665</v>
@@ -15185,7 +15137,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.872672853611783</v>
+        <v>1.873296523790948</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.647256521212296</v>
@@ -15274,7 +15226,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.867515500665514</v>
+        <v>1.868690097109951</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.888278445878624</v>
@@ -15363,7 +15315,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.873459174083489</v>
+        <v>1.877991987388915</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.3029940726604</v>
@@ -15452,7 +15404,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.870653380515463</v>
+        <v>1.873275715008977</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.814125471066097</v>
@@ -15541,7 +15493,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.870857405906136</v>
+        <v>1.874986961077095</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.682985006739729</v>
@@ -15630,7 +15582,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.883892124921871</v>
+        <v>1.890066540402878</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.447784925200534</v>
@@ -15719,7 +15671,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.884833981294653</v>
+        <v>1.895990569254953</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.87833894717713</v>
@@ -15808,7 +15760,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.890383517253037</v>
+        <v>1.902340132859832</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.441230545882182</v>
@@ -15897,7 +15849,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.877652830291775</v>
+        <v>1.886419864930169</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.672532273819183</v>
@@ -15986,7 +15938,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.882114463766726</v>
+        <v>1.893232821071767</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.590429945822816</v>
@@ -16075,7 +16027,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.879358124012477</v>
+        <v>1.895711781356112</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.693383710059833</v>
@@ -16164,7 +16116,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.891216247337137</v>
+        <v>1.901932435060847</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.794388627586221</v>
@@ -16253,7 +16205,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.902443045648386</v>
+        <v>1.906199405778215</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.715531297827947</v>
@@ -16342,7 +16294,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.906051662183719</v>
+        <v>1.906729679430226</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.671376891426822</v>
@@ -16431,7 +16383,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.897127494301924</v>
+        <v>1.89793942710477</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.651057884873168</v>
@@ -16520,7 +16472,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.895579748524966</v>
+        <v>1.899236245161467</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.623642621069272</v>
@@ -16609,7 +16561,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.903495874949439</v>
+        <v>1.903849107928252</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.662568032232199</v>
@@ -16698,7 +16650,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.896161530132271</v>
+        <v>1.896306106306016</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.712650485934584</v>
@@ -16787,7 +16739,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.89426465632108</v>
+        <v>1.893462063756304</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.56636017373494</v>
@@ -16876,7 +16828,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.89467331488332</v>
+        <v>1.894712277139977</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.741198588150491</v>
@@ -16965,7 +16917,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.893380360245464</v>
+        <v>1.888773801009143</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.577613884453403</v>
@@ -17054,7 +17006,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.892023477802141</v>
+        <v>1.888200557296842</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.616743148774342</v>
@@ -17143,7 +17095,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.890468187557267</v>
+        <v>1.884202545626057</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.737583147490678</v>
@@ -17232,7 +17184,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.896629894478382</v>
+        <v>1.89003681874211</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.366140760518824</v>
@@ -17321,7 +17273,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.893539062249531</v>
+        <v>1.88605900949363</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.670579710107256</v>
@@ -17410,7 +17362,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.894319055418879</v>
+        <v>1.882559268330298</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.002407259287757</v>
@@ -17499,7 +17451,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.893470187940207</v>
+        <v>1.881608448588793</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.423327636365457</v>
@@ -17588,7 +17540,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.881969657780314</v>
+        <v>1.873696440877654</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.63901018054115</v>
@@ -17677,7 +17629,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.880483602192794</v>
+        <v>1.870589488588718</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.74264211322096</v>
@@ -17766,7 +17718,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.884671458741153</v>
+        <v>1.869586173349137</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.227078178256209</v>
@@ -17855,7 +17807,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.881842415471279</v>
+        <v>1.857918114473953</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.237327698013343</v>
@@ -17944,7 +17896,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.877587771249966</v>
+        <v>1.84947410888182</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.3783311466306</v>
@@ -18033,7 +17985,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.877025904018247</v>
+        <v>1.846984937088105</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.42053475377965</v>
@@ -18122,7 +18074,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.886009200741418</v>
+        <v>1.853966615749673</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.188201112597792</v>
@@ -18211,7 +18163,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.887858516201742</v>
+        <v>1.853043675329008</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.810942545119555</v>
@@ -18497,7 +18449,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.844381730503501</v>
+        <v>1.831872345996303</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.513858207867438</v>
@@ -18586,7 +18538,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.851304666050168</v>
+        <v>1.839742192486284</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.237590846995011</v>
@@ -18675,7 +18627,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.85866936179322</v>
+        <v>1.85415367073288</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.334034666846229</v>
@@ -18764,7 +18716,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.876286172291826</v>
+        <v>1.8713155824562</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.729703394708017</v>
@@ -18853,7 +18805,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.885923060582125</v>
+        <v>1.884152951618271</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.794999551608533</v>
@@ -18942,7 +18894,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.882065386819999</v>
+        <v>1.878399326506521</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.288572674648288</v>
@@ -19031,7 +18983,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.880902951326565</v>
+        <v>1.873209633824294</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.898197339690296</v>
@@ -19120,7 +19072,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.88293907150839</v>
+        <v>1.877647691710624</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.747947960746053</v>
@@ -19209,7 +19161,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.886096220323011</v>
+        <v>1.886420140567193</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.941015644202783</v>
@@ -19298,7 +19250,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.891119858717406</v>
+        <v>1.889710674715953</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.897428145230979</v>
@@ -19387,7 +19339,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.889996381139036</v>
+        <v>1.888736989395455</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.629877589738982</v>
@@ -19476,7 +19428,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.885474994199419</v>
+        <v>1.88390817310778</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.096501050784341</v>
@@ -19565,7 +19517,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.884299308808999</v>
+        <v>1.887058282502833</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.845806860609983</v>
@@ -19654,7 +19606,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.886550348346548</v>
+        <v>1.892497254455725</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.132880707152236</v>
@@ -19743,7 +19695,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.89196454292872</v>
+        <v>1.895838076377637</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.978788606074556</v>
@@ -19832,7 +19784,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.888222252995815</v>
+        <v>1.896152317268724</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.33914820264483</v>
@@ -19921,7 +19873,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.889002880144655</v>
+        <v>1.899861510154795</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.982510730354329</v>
@@ -20010,7 +19962,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.878749878462014</v>
+        <v>1.88883685542956</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.027557075953371</v>
@@ -20099,7 +20051,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.887434843641444</v>
+        <v>1.901097052481692</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.400166643974403</v>
@@ -20188,7 +20140,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.878342898194762</v>
+        <v>1.891591676862583</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.964358475655397</v>
@@ -20277,7 +20229,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.872919723504052</v>
+        <v>1.89189913998776</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.545089268387398</v>
@@ -20366,7 +20318,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.887417136923448</v>
+        <v>1.911467762382729</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.032870518752193</v>
@@ -20455,7 +20407,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.885242935393934</v>
+        <v>1.912019896843045</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.355015602563256</v>
@@ -20544,7 +20496,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.901368278863059</v>
+        <v>1.923681283840339</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.230412023756086</v>
@@ -20633,7 +20585,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.888656195248154</v>
+        <v>1.911694076386875</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.338280508244215</v>
@@ -20722,7 +20674,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.892366818590605</v>
+        <v>1.916007847695215</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.763207239327</v>
@@ -20811,7 +20763,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.894703873822291</v>
+        <v>1.920461035673889</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.871373023748189</v>
@@ -20900,7 +20852,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.911641822138259</v>
+        <v>1.935227949488632</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.892992298087312</v>
@@ -20989,7 +20941,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.920419736877836</v>
+        <v>1.942468948698792</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.978105849881339</v>
@@ -21078,7 +21030,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.921019255778893</v>
+        <v>1.944817805894488</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.745500730108956</v>
@@ -21167,7 +21119,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.921496583598576</v>
+        <v>1.94203099884543</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.882062299934424</v>
@@ -21256,7 +21208,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.918298325853008</v>
+        <v>1.939078357836766</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.878792127086758</v>
@@ -21345,7 +21297,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.91787662546373</v>
+        <v>1.936506816141612</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.936290231286328</v>
@@ -21434,7 +21386,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.910764629498505</v>
+        <v>1.932876502956695</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.391757189990975</v>
@@ -21523,7 +21475,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.922379168167495</v>
+        <v>1.942167972098508</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.248814550171365</v>
@@ -21612,7 +21564,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.928287632420677</v>
+        <v>1.949569028316054</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.958884539473008</v>
@@ -21701,7 +21653,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.912797494105974</v>
+        <v>1.932952142683245</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.587136366002255</v>
@@ -21790,7 +21742,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.913418502059492</v>
+        <v>1.93337771808745</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.80259273865939</v>
@@ -21879,7 +21831,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.910849308463944</v>
+        <v>1.931289628944064</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.988901211649995</v>
@@ -21968,7 +21920,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.914047474124234</v>
+        <v>1.92900621162826</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.632227134821265</v>
@@ -22057,7 +22009,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.922493676753763</v>
+        <v>1.931567339259211</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.176433658324433</v>
@@ -22146,7 +22098,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.92191085798012</v>
+        <v>1.928396057059327</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.334229716142588</v>
@@ -22235,7 +22187,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.917878888307362</v>
+        <v>1.923883998975599</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.536932006225806</v>
@@ -22324,7 +22276,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.912726472577179</v>
+        <v>1.914052399043778</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.201979998528145</v>
@@ -22413,7 +22365,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.905576159014982</v>
+        <v>1.900743372719537</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.131623596353262</v>
@@ -22502,7 +22454,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.90161957617381</v>
+        <v>1.889044604309247</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.06233431143221</v>
@@ -22591,7 +22543,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.90405640972874</v>
+        <v>1.88571346829124</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.480405842102135</v>
@@ -22680,7 +22632,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.902309995873504</v>
+        <v>1.883191553382091</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.853320906268274</v>
@@ -22769,7 +22721,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.902555367358206</v>
+        <v>1.882625906674355</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.675610732532504</v>
@@ -22858,7 +22810,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.901075071004698</v>
+        <v>1.881237296969566</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.629952420039118</v>
@@ -22947,7 +22899,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.902189211313204</v>
+        <v>1.879840015661657</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.999371540289951</v>
@@ -23233,7 +23185,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.445182185300316</v>
+        <v>1.460411214212352</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.700447033047354</v>
@@ -23322,7 +23274,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.451167555844817</v>
+        <v>1.465720104054775</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.689024961445522</v>
@@ -23411,7 +23363,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.466697457425517</v>
+        <v>1.479564333239871</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.685142816754088</v>
@@ -23500,7 +23452,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.584178282578027</v>
+        <v>1.588967428271705</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.832391173490592</v>
@@ -23589,7 +23541,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.642029057547463</v>
+        <v>1.638521942963008</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.958994095896647</v>
@@ -23678,7 +23630,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.647954851993638</v>
+        <v>1.658144895520134</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.866985878132051</v>
@@ -23767,7 +23719,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.667369413834277</v>
+        <v>1.672141520428184</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.851110016689564</v>
@@ -23856,7 +23808,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.659536122753714</v>
+        <v>1.665890232792865</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.827495052005026</v>
@@ -23945,7 +23897,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.695557979338181</v>
+        <v>1.699484285297787</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.826967286902649</v>
@@ -24034,7 +23986,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.716688337686574</v>
+        <v>1.705579500889844</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.823348847657323</v>
@@ -24123,7 +24075,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.679129292062743</v>
+        <v>1.678128024356306</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.825146643634463</v>
@@ -24212,7 +24164,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.669346915485481</v>
+        <v>1.666883027050348</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.817809160013041</v>
@@ -24301,7 +24253,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.632981483793098</v>
+        <v>1.63781039882661</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.852818069045487</v>
@@ -24390,7 +24342,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.46106592614849</v>
+        <v>1.47709732460863</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.689065165765046</v>
@@ -24479,7 +24431,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.464408704571122</v>
+        <v>1.481590465686563</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.687732891376197</v>
@@ -24568,7 +24520,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.460392179881764</v>
+        <v>1.480588727666124</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.682242976417688</v>
@@ -24657,7 +24609,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.454915283374173</v>
+        <v>1.476279797948381</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.696449914211061</v>
@@ -24746,7 +24698,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.443657521200962</v>
+        <v>1.463467421056428</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.683307731184831</v>
@@ -24835,7 +24787,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.44309625247155</v>
+        <v>1.464001844121214</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.68387022942801</v>
@@ -24924,7 +24876,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.429115062597925</v>
+        <v>1.449838630842094</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.671589707642701</v>
@@ -25013,7 +24965,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.436284955069042</v>
+        <v>1.459433145050071</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.681005716735174</v>
@@ -25102,7 +25054,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.439373439446412</v>
+        <v>1.463089510675484</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.672917276129115</v>
@@ -25191,7 +25143,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.4338018191865</v>
+        <v>1.460979856470342</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.672861551426343</v>
@@ -25280,7 +25232,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.443480954650699</v>
+        <v>1.471835608836225</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.670774992517685</v>
@@ -25369,7 +25321,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.463188531354779</v>
+        <v>1.495773491643061</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.629429751709987</v>
@@ -25458,7 +25410,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.472727348652857</v>
+        <v>1.507455788779566</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.674221515380255</v>
@@ -25547,7 +25499,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.472733612149769</v>
+        <v>1.508537920984629</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.67750108223916</v>
@@ -25636,7 +25588,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.52704937883294</v>
+        <v>1.549970520626493</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.552475739715328</v>
@@ -25725,7 +25677,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.674608124598253</v>
+        <v>1.708763111405104</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.74047426449972</v>
@@ -25814,7 +25766,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.665377077484315</v>
+        <v>1.69321868703438</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.51658003317158</v>
@@ -25903,7 +25855,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.560459213040564</v>
+        <v>1.566938776087476</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.713086635150309</v>
@@ -25992,7 +25944,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.548652407154121</v>
+        <v>1.557032219479422</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.73180976826439</v>
@@ -26081,7 +26033,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.558080646964892</v>
+        <v>1.569533751545382</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.729759492720841</v>
@@ -26170,7 +26122,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.562735399489173</v>
+        <v>1.571685707200353</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.72561763447549</v>
@@ -26259,7 +26211,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.578734873980287</v>
+        <v>1.58906040272877</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.724484036786272</v>
@@ -26348,7 +26300,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.573951248353358</v>
+        <v>1.582509244586665</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.715621113555836</v>
@@ -26437,7 +26389,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.573127124345685</v>
+        <v>1.579910468520452</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.71878506333434</v>
@@ -26526,7 +26478,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.573734196684187</v>
+        <v>1.578844877155153</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.723590037543673</v>
@@ -26615,7 +26567,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.565040755533597</v>
+        <v>1.567745172613151</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.723125980025094</v>
@@ -26704,7 +26656,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.552931146139415</v>
+        <v>1.553762329747958</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.717115981892156</v>
@@ -26793,7 +26745,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.549009142240672</v>
+        <v>1.551742092328457</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.724009600198525</v>
@@ -26882,7 +26834,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.549078205801456</v>
+        <v>1.550723046936046</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.708809772100759</v>
@@ -26971,7 +26923,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.560488204491174</v>
+        <v>1.559371601413845</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.734024117895908</v>
@@ -27060,7 +27012,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.546119737532165</v>
+        <v>1.544205760832941</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.709720505816498</v>
@@ -27149,7 +27101,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.529369651018054</v>
+        <v>1.530058071320746</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.712503936517622</v>
@@ -27238,7 +27190,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.63594101250774</v>
+        <v>1.648625767298397</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.448159478504443</v>
@@ -27327,7 +27279,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.646804389073738</v>
+        <v>1.659669466250557</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.748375908166286</v>
@@ -27416,7 +27368,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.631524683083699</v>
+        <v>1.646187114865835</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.689157100664041</v>
@@ -27505,7 +27457,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.625786143526563</v>
+        <v>1.639423162341814</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.824168963128657</v>
@@ -27594,7 +27546,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.627495663384197</v>
+        <v>1.639216870490727</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.774069856015906</v>
@@ -27683,7 +27635,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.621533555275036</v>
+        <v>1.632485454636906</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.731847726165128</v>
@@ -27969,7 +27921,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.63498558215756</v>
+        <v>1.690053459904033</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.961314958007368</v>
@@ -28058,7 +28010,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.646660493386437</v>
+        <v>1.703571071691943</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.790207515205171</v>
@@ -28147,7 +28099,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.674896804717988</v>
+        <v>1.730916291866658</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.016797603355339</v>
@@ -28236,7 +28188,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.698803396783538</v>
+        <v>1.751050332959083</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.759463973426016</v>
@@ -28325,7 +28277,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.727245330919082</v>
+        <v>1.781221266667488</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.77932554691424</v>
@@ -28414,7 +28366,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.730741129426834</v>
+        <v>1.784976351901804</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.82957382602655</v>
@@ -28503,7 +28455,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.72891752141971</v>
+        <v>1.779712035708082</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.058936653128216</v>
@@ -28592,7 +28544,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.722697698359264</v>
+        <v>1.775160797152587</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.748071035197459</v>
@@ -28681,7 +28633,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.72827205533293</v>
+        <v>1.779586825007982</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.899484714539246</v>
@@ -28770,7 +28722,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.742070912104096</v>
+        <v>1.794169513925099</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.114690142943541</v>
@@ -28859,7 +28811,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.744528849279793</v>
+        <v>1.793193979401148</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.108953630273605</v>
@@ -28948,7 +28900,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.746863581881483</v>
+        <v>1.79486655271985</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.369751977885372</v>
@@ -29037,7 +28989,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.755199186237222</v>
+        <v>1.802986896593764</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.198171036089511</v>
@@ -29126,7 +29078,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.785764074862272</v>
+        <v>1.831346768300243</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.187814659591876</v>
@@ -29215,7 +29167,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.802579870182961</v>
+        <v>1.846075455789711</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.254331110517684</v>
@@ -29304,7 +29256,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.790530572285694</v>
+        <v>1.841114360210505</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.200956102498151</v>
@@ -29393,7 +29345,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.790769931099798</v>
+        <v>1.843506524632497</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.137181897094897</v>
@@ -29482,7 +29434,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.770596687074512</v>
+        <v>1.826634966563663</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.27586304981408</v>
@@ -29571,7 +29523,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.797239989435228</v>
+        <v>1.8528827895063</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.25928765341418</v>
@@ -29660,7 +29612,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.780407168680294</v>
+        <v>1.835934216376912</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.20333816695641</v>
@@ -29749,7 +29701,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.7525227843105</v>
+        <v>1.815080038101207</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.364157874147613</v>
@@ -29838,7 +29790,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.767926596660449</v>
+        <v>1.831281314612249</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.984617087812309</v>
@@ -29927,7 +29879,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.772250161135655</v>
+        <v>1.837660264833791</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.32111178017903</v>
@@ -30016,7 +29968,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.799947452845801</v>
+        <v>1.861359223449206</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.055128175697563</v>
@@ -30105,7 +30057,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.79817112693397</v>
+        <v>1.858233545122454</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.374090273581252</v>
@@ -30194,7 +30146,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.81683660057662</v>
+        <v>1.876637530250851</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.26788308526631</v>
@@ -30283,7 +30235,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.818806262727989</v>
+        <v>1.879338541295481</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.294751811204924</v>
@@ -30372,7 +30324,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.84534136059651</v>
+        <v>1.90074681712285</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.305022630231993</v>
@@ -30461,7 +30413,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.846721271878256</v>
+        <v>1.902224086233911</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.068669763751721</v>
@@ -30550,7 +30502,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.847147893440603</v>
+        <v>1.899336800438344</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.380250299906463</v>
@@ -30639,7 +30591,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.866816106135221</v>
+        <v>1.907556567272024</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.524560930742739</v>
@@ -30728,7 +30680,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.867350790087984</v>
+        <v>1.905330477636243</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.093416770872746</v>
@@ -30817,7 +30769,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.878721542144284</v>
+        <v>1.914095715957699</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.365282211450539</v>
@@ -30906,7 +30858,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.847753234616708</v>
+        <v>1.889574196319495</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.374645619610175</v>
@@ -30995,7 +30947,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.870582242193659</v>
+        <v>1.908128000614748</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.454835542888564</v>
@@ -31084,7 +31036,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.902961293410845</v>
+        <v>1.932454074571215</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.51640746699017</v>
@@ -31173,7 +31125,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.876409857603116</v>
+        <v>1.908254381245401</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.756866775627351</v>
@@ -31262,7 +31214,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.877178746758003</v>
+        <v>1.908889748889008</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.335894950612881</v>
@@ -31351,7 +31303,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.869471822822027</v>
+        <v>1.904481295519063</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.415873426412969</v>
@@ -31440,7 +31392,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.842396375595262</v>
+        <v>1.879091250627878</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.691833421671883</v>
@@ -31529,7 +31481,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.852580235278309</v>
+        <v>1.88328010427804</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.428355477325067</v>
@@ -31618,7 +31570,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.848891384663786</v>
+        <v>1.872217877995265</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.308156774175944</v>
@@ -31707,7 +31659,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.846346776865277</v>
+        <v>1.865040194418996</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.471131443622189</v>
@@ -31796,7 +31748,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.847324034359815</v>
+        <v>1.861808239095527</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.506626356723724</v>
@@ -31885,7 +31837,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.846053738802075</v>
+        <v>1.854828632054421</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.319090887592853</v>
@@ -31974,7 +31926,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.81261199959125</v>
+        <v>1.825344061033779</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.457672269553278</v>
@@ -32063,7 +32015,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.810368572051161</v>
+        <v>1.818804184232871</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.471222067156708</v>
@@ -32152,7 +32104,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.811214771245637</v>
+        <v>1.81754800556888</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.189847536525085</v>
@@ -32241,7 +32193,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.808969001427546</v>
+        <v>1.812484121870555</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.139919137675865</v>
@@ -32330,7 +32282,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.807680318045328</v>
+        <v>1.813610930888701</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.951121352071819</v>
@@ -32419,7 +32371,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.808014956246008</v>
+        <v>1.814118369109478</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.083081419715286</v>
